--- a/data/trans_camb/P42-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42-Provincia-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>6.091535253827052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15.69262731471825</v>
+        <v>15.69262731471824</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.23488335760617</v>
+        <v>3.862965451016015</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6248224878298063</v>
+        <v>-0.1016280722259001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.135199761772789</v>
+        <v>9.377283717922111</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.65512446222013</v>
+        <v>16.34719216812528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.78701508291914</v>
+        <v>13.13486877978522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.20650108200048</v>
+        <v>21.90149980866815</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.07716968791995829</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.198799662492342</v>
+        <v>0.1987996624923419</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04019052564037168</v>
+        <v>0.04557880673553958</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.006277176308527966</v>
+        <v>-0.000579567982964507</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1167029986429698</v>
+        <v>0.1133167382598337</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2110385915671034</v>
+        <v>0.2229272980914019</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1723415030682531</v>
+        <v>0.1765805680690258</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2998423596071442</v>
+        <v>0.2947673954076459</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>2.639724082062456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.153504786688082</v>
+        <v>8.153504786688092</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.604667813425765</v>
+        <v>4.842899115512941</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.992919583759279</v>
+        <v>-2.046632426984489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.424699806843913</v>
+        <v>3.686889407162699</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.99858194548707</v>
+        <v>13.61210184397469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.127231113880042</v>
+        <v>7.513847178934502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.94007142511347</v>
+        <v>12.95972764375396</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.03233928443730668</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.09988866345895948</v>
+        <v>0.09988866345895962</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05538856868813658</v>
+        <v>0.05640344748013559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02348945687928922</v>
+        <v>-0.024426636372565</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.04161713024300277</v>
+        <v>0.04401736484017005</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1638784705786234</v>
+        <v>0.1734404571896436</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09068992376393582</v>
+        <v>0.09409668174368802</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1638447823669976</v>
+        <v>0.1661900439324278</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>10.63892902604293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.387153482707495</v>
+        <v>4.387153482707518</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.291875679113143</v>
+        <v>3.146317160503799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.370830241131294</v>
+        <v>5.275870713412559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.804556534862029</v>
+        <v>-2.111630297032959</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.35995001327119</v>
+        <v>15.38399051983558</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.18946631911327</v>
+        <v>16.39360422409522</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.67400765297071</v>
+        <v>11.22562198210922</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.1399793884270533</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.05772301515892583</v>
+        <v>0.05772301515892612</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0402562163322091</v>
+        <v>0.03975195605586331</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05316605135470534</v>
+        <v>0.06746268196819305</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03654431842604519</v>
+        <v>-0.02630237444650962</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2116357899506988</v>
+        <v>0.2120980395666084</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2218965494191363</v>
+        <v>0.2257908953506939</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.146651057319551</v>
+        <v>0.1540780635788619</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>8.223252864814389</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11.72479690104106</v>
+        <v>11.72479690104108</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.216844186323465</v>
+        <v>2.649069880306861</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.194913825861559</v>
+        <v>2.163245213966816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.248630209701535</v>
+        <v>5.118361423432571</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.56378303997939</v>
+        <v>13.77371194690873</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.81895513394603</v>
+        <v>13.710872925711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.8976793732168</v>
+        <v>17.92562808932394</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1075960914092896</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1534115926943764</v>
+        <v>0.1534115926943767</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.028954826285275</v>
+        <v>0.03354315879319514</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02848602772911311</v>
+        <v>0.02775575834523935</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.06605384323348645</v>
+        <v>0.06700308986009632</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1878158828824356</v>
+        <v>0.1907373244275196</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1899272264333632</v>
+        <v>0.1920578181370093</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2440973219734272</v>
+        <v>0.2466667865275493</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>16.24847071113866</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.17706505918258</v>
+        <v>12.17706505918256</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.233492012317315</v>
+        <v>4.924458518231618</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.146708541078414</v>
+        <v>8.748654694665326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.289992704796088</v>
+        <v>4.959625521221276</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.32116398620018</v>
+        <v>19.89421508788044</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.23342229594209</v>
+        <v>23.88551643943637</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.66284607403328</v>
+        <v>20.94725882668601</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.2214521607715493</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1659625337763704</v>
+        <v>0.1659625337763701</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05464168514672978</v>
+        <v>0.06308528423494195</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1174614652948997</v>
+        <v>0.118797754559934</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05457461201654959</v>
+        <v>0.06462748688323353</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.296806533463477</v>
+        <v>0.2964170949397008</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3541204958826225</v>
+        <v>0.3547070221674484</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2908128735147547</v>
+        <v>0.3127779831415924</v>
       </c>
     </row>
     <row r="34">
@@ -1120,7 +1120,7 @@
         <v>4.96008572176655</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.447795185950574</v>
+        <v>-2.447795185950596</v>
       </c>
     </row>
     <row r="35">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.108091796196141</v>
+        <v>6.251957858671608</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.214466583892251</v>
+        <v>-2.095615095697532</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.884952175999299</v>
+        <v>-9.544427422078154</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.70114231635383</v>
+        <v>19.43167547517042</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.00664740718159</v>
+        <v>11.67487880305883</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.982189318821172</v>
+        <v>5.962607080967562</v>
       </c>
     </row>
     <row r="37">
@@ -1171,7 +1171,7 @@
         <v>0.06733522196734699</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.03322983541459505</v>
+        <v>-0.03322983541459535</v>
       </c>
     </row>
     <row r="38">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.08072652518236184</v>
+        <v>0.08366268147363937</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.02798733567839194</v>
+        <v>-0.02611113344934524</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1280922585394533</v>
+        <v>-0.1248637736904499</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2871932568289562</v>
+        <v>0.2868063488938721</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.175135367018378</v>
+        <v>0.1713685261914163</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.0857969881038159</v>
+        <v>0.08601019513622701</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>8.063154927279603</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.674332510616229</v>
+        <v>3.674332510616218</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.368107100283279</v>
+        <v>2.39032182407829</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.311224400958466</v>
+        <v>4.831310127985306</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.4035701493202659</v>
+        <v>-0.5548771064780914</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.934137229986618</v>
+        <v>9.560651268893814</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.46309834536207</v>
+        <v>11.8430424486784</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.706361245409473</v>
+        <v>7.773081936730056</v>
       </c>
     </row>
     <row r="43">
@@ -1277,7 +1277,7 @@
         <v>0.09631453174084373</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.04388996843194218</v>
+        <v>0.04388996843194205</v>
       </c>
     </row>
     <row r="44">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02772204062538511</v>
+        <v>0.02768180244962081</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.0502388226410469</v>
+        <v>0.05628543570713745</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.004641490108019579</v>
+        <v>-0.00651557523711697</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1227943002405316</v>
+        <v>0.1186704804453804</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1412763135690786</v>
+        <v>0.1454847872047359</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.09479266540123074</v>
+        <v>0.09557910994761622</v>
       </c>
     </row>
     <row r="46">
@@ -1332,7 +1332,7 @@
         <v>9.763572563905587</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.559878928132088</v>
+        <v>-3.559878928132076</v>
       </c>
     </row>
     <row r="47">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.38453144278151</v>
+        <v>1.690415584963128</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.013049273479418</v>
+        <v>6.263945859727632</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.011474862612738</v>
+        <v>-8.240989580893013</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.618221193251504</v>
+        <v>9.520740963948757</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.41942255194009</v>
+        <v>13.50274078985315</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.820462887548101</v>
+        <v>0.397202291320589</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
         <v>0.1223272017592652</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.04460150472891816</v>
+        <v>-0.04460150472891802</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.01735914092851522</v>
+        <v>0.02012729280214553</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.07312691929617447</v>
+        <v>0.07666155694896494</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.09823014388148424</v>
+        <v>-0.1008978084566428</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1253789360848724</v>
+        <v>0.1236581638964914</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1734492037105273</v>
+        <v>0.1747585650672446</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01069581955886497</v>
+        <v>0.004891517441794279</v>
       </c>
     </row>
     <row r="52">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.221573796368764</v>
+        <v>6.180536962845001</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>6.192183244941917</v>
+        <v>6.307341541587719</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.541460463996832</v>
+        <v>2.704766475822672</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>9.816312146973996</v>
+        <v>9.929906764812841</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>9.969676909246985</v>
+        <v>9.806409707104107</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.727921358765086</v>
+        <v>6.556352651505956</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.0771198306138305</v>
+        <v>0.07682353396567514</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.07724656775636035</v>
+        <v>0.07855173382044754</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.03145657623317433</v>
+        <v>0.03379639756229458</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1254245074746585</v>
+        <v>0.1269877899203487</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1277311509835919</v>
+        <v>0.1257410537191013</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.08627235073084658</v>
+        <v>0.08399514291707633</v>
       </c>
     </row>
     <row r="58">
